--- a/data/trans_bre/P1002-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1002-Provincia-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>1.098772815018568</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.6558481554415552</v>
+        <v>0.6558481554415548</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.618825155063022</v>
+        <v>-4.30480224553903</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.868574569070298</v>
+        <v>5.037504548036488</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.251679936527972</v>
+        <v>4.235369837785551</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.9620803305410282</v>
+        <v>-0.8768015776180762</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.4122746751747915</v>
+        <v>-0.4573408549849035</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4238308848252704</v>
+        <v>0.4117056292354062</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3635797739479561</v>
+        <v>0.319716175050006</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.4023702247151101</v>
+        <v>-0.396606480295279</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.394472410154421</v>
+        <v>5.465485294611323</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>16.62800765838895</v>
+        <v>17.08351300493809</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16.36870068134313</v>
+        <v>16.28786994276616</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.141263512599415</v>
+        <v>3.051538558284367</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.087533067681101</v>
+        <v>1.079560148176105</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2.531465293285464</v>
+        <v>2.51990187365336</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2.367813686447398</v>
+        <v>2.319255758536401</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3.939528809655808</v>
+        <v>4.017447220680205</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>5.375682684971263</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3.528960911822363</v>
+        <v>3.528960911822365</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>1.008801865219473</v>
@@ -749,7 +749,7 @@
         <v>2.003398001650257</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.5053654884183811</v>
+        <v>0.5053654884183815</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.418160373869427</v>
+        <v>3.341888758286043</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.877121477892155</v>
+        <v>2.87316295271736</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.794210423744113</v>
+        <v>2.66120772602391</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2541352594524617</v>
+        <v>0.2674213164124421</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3516854531774913</v>
+        <v>0.3725428702027913</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2780644029058357</v>
+        <v>0.2737920580642671</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6573162249524559</v>
+        <v>0.6402344133810125</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.0118368153964488</v>
+        <v>0.01984138511061796</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>11.67014066824536</v>
+        <v>11.621305041604</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>11.84526002348645</v>
+        <v>11.06555594798234</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8.337151879953458</v>
+        <v>8.565862920234375</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.324416914033701</v>
+        <v>6.87226331604611</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.088541609734214</v>
+        <v>2.111630473448447</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.046142764975683</v>
+        <v>1.826624708437963</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>4.788113010520213</v>
+        <v>4.67726076432559</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.381801409587946</v>
+        <v>1.279809008753625</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>2.802257000318367</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.6772284585868829</v>
+        <v>0.6772284585868815</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.88691268347208</v>
@@ -849,7 +849,7 @@
         <v>1.329357151928349</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1136713126555109</v>
+        <v>0.1136713126555106</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.001448429310286436</v>
+        <v>0.01723102857986551</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.538265301095853</v>
+        <v>1.255351875420724</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.0308245307702005</v>
+        <v>0.2126570453695324</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.69143875539965</v>
+        <v>-2.73750243118386</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.4206701978754307</v>
+        <v>-0.3639442160589045</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1537595921647326</v>
+        <v>0.1425908731911619</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.0911350159384898</v>
+        <v>-0.07935725130884443</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.3428106983782507</v>
+        <v>-0.3710553931298122</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.633745017767367</v>
+        <v>4.939396383013225</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.08990997771272</v>
+        <v>9.976588202812584</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.665800051218848</v>
+        <v>6.037523233526668</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.355963228881129</v>
+        <v>3.577059593083449</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>13.93006661571571</v>
+        <v>11.90397455136759</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.81064713331363</v>
+        <v>2.76163012609197</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>4.994468435132386</v>
+        <v>5.709675902596993</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.7529781136395071</v>
+        <v>0.8359344874889501</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>9.938602491935107</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5.734167604229586</v>
+        <v>5.734167604229587</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>3.054624278176755</v>
@@ -949,7 +949,7 @@
         <v>1.137139747023526</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>1.016632814357951</v>
+        <v>1.016632814357952</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.393241068202522</v>
+        <v>2.497059673269256</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>9.360801191759482</v>
+        <v>9.835739873986405</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5.448480813789238</v>
+        <v>4.731057581345063</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.555310187222932</v>
+        <v>1.852794815648446</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5876891294500989</v>
+        <v>0.5505448166433141</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.114293546657021</v>
+        <v>1.15779482647992</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4557167351413549</v>
+        <v>0.3760841552619</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1472855215773005</v>
+        <v>0.1814455844489377</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>8.508068587541004</v>
+        <v>8.505589721265206</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>18.9408031936564</v>
+        <v>19.25931702521137</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>15.11485545659733</v>
+        <v>15.23678693422862</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9.833204193904441</v>
+        <v>10.31554494053207</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>10.05785220527125</v>
+        <v>10.0700210552286</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>4.027205781410122</v>
+        <v>4.459634458725738</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.224404337510348</v>
+        <v>2.227817135513701</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.366194814143561</v>
+        <v>2.747404070593503</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>3.838868172206607</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5.404241533108161</v>
+        <v>5.404241533108159</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.04940553961363077</v>
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.708413582911708</v>
+        <v>-4.62728694318738</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>7.325192235780865</v>
+        <v>7.527604660105576</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.3777841474741242</v>
+        <v>-0.8456203292583839</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.491210460090531</v>
+        <v>2.54365446773816</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.5825438729624119</v>
+        <v>-0.5544802266593787</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.991990629020427</v>
+        <v>1.053943074862325</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.1541914060834023</v>
+        <v>-0.20892795713238</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.5367384822695804</v>
+        <v>0.5134643419389767</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.581880583339202</v>
+        <v>4.085237024670618</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>19.90144650035887</v>
+        <v>18.29714872298511</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.846003947299899</v>
+        <v>8.610649028312247</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.206184776827348</v>
+        <v>8.183298061430222</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.236019957303167</v>
+        <v>0.980799983382905</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>8.876797962924657</v>
+        <v>7.855887128549072</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3.630141893521017</v>
+        <v>3.507689908410154</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>4.964557810694384</v>
+        <v>5.491371200855946</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>4.480263788389045</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>1.828744088550259</v>
+        <v>1.828744088550255</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>1.839649654862534</v>
@@ -1149,7 +1149,7 @@
         <v>0.5594111978651666</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.3538719399364086</v>
+        <v>0.3538719399364078</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-0.03334279230906085</v>
+        <v>0.2079839746557059</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-1.616765424728294</v>
+        <v>-1.355963036227847</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-0.2480190900944857</v>
+        <v>-0.4127039856107007</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-1.360071124196366</v>
+        <v>-1.163616187854959</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2827639172245543</v>
+        <v>-0.1283400323015704</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2140265046781394</v>
+        <v>-0.1602486353672983</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.03413240239470548</v>
+        <v>-0.06309506166822083</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2189145670819561</v>
+        <v>-0.1662756894544842</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>5.316799889682441</v>
+        <v>5.401092495457328</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>8.548630074214374</v>
+        <v>8.073486141269036</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>9.863756455784728</v>
+        <v>10.14618362607048</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4.840060275244258</v>
+        <v>4.951525658448032</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>10.52200020137938</v>
+        <v>11.11163241936847</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.644598426867149</v>
+        <v>1.615616806839423</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.739461598807338</v>
+        <v>1.722727599265091</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.230556724785061</v>
+        <v>1.436654305303807</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.482399728192836</v>
+        <v>1.250227945255253</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8765557412008429</v>
+        <v>0.6212349751128937</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.14839703639946</v>
+        <v>2.85263303907415</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.416970925104082</v>
+        <v>2.5285179617833</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.204800570926473</v>
+        <v>0.1820269171942169</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1568258682511411</v>
+        <v>0.07709596389307354</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3673813233609171</v>
+        <v>0.3589386464548216</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.2432167400109544</v>
+        <v>0.2633634698267532</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.116688471462834</v>
+        <v>6.87475228697225</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.961147949755071</v>
+        <v>5.998034062706794</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9.600475433360184</v>
+        <v>9.420524985674504</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9.137974922535115</v>
+        <v>9.009339648261101</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.829736297244668</v>
+        <v>1.720926733034397</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.995949804855467</v>
+        <v>1.90654192100652</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>2.074714816766579</v>
+        <v>2.131108046440057</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.501342916863931</v>
+        <v>1.530166302112091</v>
       </c>
     </row>
     <row r="25">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-1.404413565675665</v>
+        <v>-0.9995702208307136</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>2.909504081696867</v>
+        <v>3.034128446415918</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.5117198642188516</v>
+        <v>0.5015989052544003</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6.377507830620202</v>
+        <v>6.628421851978815</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1741330101978937</v>
+        <v>-0.1154518287856319</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2706176001127406</v>
+        <v>0.2745674095386158</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04348486666447285</v>
+        <v>0.07999012594864283</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.9057284651308629</v>
+        <v>0.9695277278795815</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>4.237876632626239</v>
+        <v>4.650896617884683</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>9.731428036780445</v>
+        <v>10.01336702483763</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>4.989494695382021</v>
+        <v>5.263306098747774</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>11.61893497454453</v>
+        <v>11.91573366697912</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.6472626877814447</v>
+        <v>0.746259443446858</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.324355444915678</v>
+        <v>1.439127858930824</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.470967797430397</v>
+        <v>1.57696568667941</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>2.490401135231944</v>
+        <v>2.735040292183144</v>
       </c>
     </row>
     <row r="28">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.063659110353194</v>
+        <v>2.051638598356188</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>5.731194472449117</v>
+        <v>5.592432617412708</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4.089863769871914</v>
+        <v>3.997694201210942</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.866793816122824</v>
+        <v>3.831151345482581</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.3643941518647506</v>
+        <v>0.3505054689953788</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7559146520096518</v>
+        <v>0.7606524542807338</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6768243993251126</v>
+        <v>0.6690947319245106</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.6045542252333197</v>
+        <v>0.5873337415545804</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.572427938750856</v>
+        <v>4.56999767347823</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>8.781154923821893</v>
+        <v>8.652502326713964</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6.637792413217778</v>
+        <v>6.694477599865177</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6.254405986889414</v>
+        <v>6.259878651109811</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.9833234910823551</v>
+        <v>0.9665475163289505</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1.451942773108299</v>
+        <v>1.423023246358733</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1.389985086390445</v>
+        <v>1.387136995014101</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>1.194851271928271</v>
+        <v>1.240386796533379</v>
       </c>
     </row>
     <row r="31">
